--- a/docs/画面項目定義書/virtual_network_dashboard.xlsx
+++ b/docs/画面項目定義書/virtual_network_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F9B87B-8606-4D8C-BF93-EAD2DED42853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0173D15-C28D-496F-AF33-C1875A200401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="仮想マシンダッシュボード" sheetId="1" r:id="rId1"/>
@@ -114,19 +114,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>仮想マシン作成モーダルを表示</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>仮想マシン名</t>
     <rPh sb="0" eb="2">
       <t>カソウ</t>
@@ -355,6 +342,19 @@
     <t>Ref(利用者サイドバー)</t>
     <rPh sb="4" eb="7">
       <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想マシン作成モーダルへ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1437,12 +1437,12 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="22"/>
       <c r="E10" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
@@ -1461,139 +1461,139 @@
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="36" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="36"/>
@@ -1601,35 +1601,35 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
